--- a/database.xlsx
+++ b/database.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,29 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Pass123!</t>
+        </is>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>54176817409</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-02-14 05:20:40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -574,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,8 +919,6 @@
           <t>РУЧНАЯ</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -906,12 +927,62 @@
           <t>2026-02-14 05:12:19</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>Ручная обработка менеджером</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54176817409</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PROCESSING</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ВЫДАН</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ключ активации Microsoft Windows 10 Pro, официальная активация</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2 Самойлов</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>49</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>14-02-2026 05:18:44</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-02-14 05:20:40</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>DIGITAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Авто-выдача</t>
         </is>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +585,30 @@
           <t>2026-02-14 05:20:40</t>
         </is>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>user2@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Pass456!</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BACKUP-CODE</t>
+        </is>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -587,8 +587,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>user2@gmail.com</t>
@@ -605,10 +603,16 @@
         </is>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>54176867905</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-02-14 05:30:12</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -621,7 +625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,6 +1014,59 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54176867905</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PROCESSING</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ВЫДАН</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ключ активации Microsoft Windows 10 Pro, официальная активация</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23 Самойлов</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>49</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>14-02-2026 05:29:21</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-02-14 05:30:12</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>user2@gmail.com</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>DIGITAL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Авто-выдача</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
